--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,108 +43,117 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>junk</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>received</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>machine</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -154,15 +163,24 @@
     <t>way</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>small</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -175,15 +193,15 @@
     <t>love</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -193,13 +211,13 @@
     <t>salad</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>ze</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
   </si>
   <si>
     <t>highly</t>
@@ -569,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9911504424778761</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9661016949152542</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9622641509433962</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8900928792569659</v>
+        <v>0.8777089783281734</v>
       </c>
       <c r="L5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9595959595959596</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.8542372881355932</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9245283018867925</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8441558441558441</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9135135135135135</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,31 +924,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
+        <v>0.7922077922077922</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8">
-        <v>0.8440677966101695</v>
-      </c>
-      <c r="L8">
-        <v>249</v>
-      </c>
-      <c r="M8">
-        <v>249</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,31 +974,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L9">
+        <v>175</v>
+      </c>
+      <c r="M9">
+        <v>175</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>56</v>
-      </c>
-      <c r="K9">
-        <v>0.7705627705627706</v>
-      </c>
-      <c r="L9">
-        <v>178</v>
-      </c>
-      <c r="M9">
-        <v>178</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,16 +1027,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.6842105263157895</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8846153846153846</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.6301369863013698</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8767123287671232</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,31 +1124,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8666666666666667</v>
+        <v>0.8767123287671232</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.5142857142857142</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8653846153846154</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.5079365079365079</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8604651162790697</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.3693693693693694</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.839622641509434</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3499197431781702</v>
+        <v>0.406099518459069</v>
       </c>
       <c r="L16">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="M16">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>810</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8235294117647058</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.03972602739726028</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>701</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8108108108108109</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8028169014084507</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1440,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7846153846153846</v>
+        <v>0.8040540540540541</v>
       </c>
       <c r="C20">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D20">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1458,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1466,13 +1484,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7756410256410257</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C21">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1484,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1492,13 +1510,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7471264367816092</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1518,13 +1536,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7307692307692307</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1536,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1544,13 +1562,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.725</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1562,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1570,13 +1588,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7168141592920354</v>
+        <v>0.75</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1588,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1596,13 +1614,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7090909090909091</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1614,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1622,13 +1640,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7045454545454546</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1640,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1648,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6818181818181818</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1666,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1674,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6699029126213593</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C29">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1692,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1700,13 +1718,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6346153846153846</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1718,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1726,13 +1744,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5769230769230769</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1744,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1752,13 +1770,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5698324022346368</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="C32">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1770,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1778,13 +1796,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5656565656565656</v>
+        <v>0.62</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1796,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1804,13 +1822,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4868421052631579</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1822,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1830,13 +1848,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4827586206896552</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1848,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1856,13 +1874,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.425</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C36">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1874,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1882,13 +1900,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4123711340206185</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1900,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1908,25 +1926,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2918918918918919</v>
+        <v>0.46</v>
       </c>
       <c r="C38">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>92</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>108</v>
-      </c>
-      <c r="D38">
-        <v>109</v>
-      </c>
-      <c r="E38">
-        <v>0.01</v>
-      </c>
-      <c r="F38">
-        <v>0.99</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1934,13 +1952,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2761904761904762</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C39">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1952,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>152</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1960,13 +1978,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2317880794701987</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1978,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1986,13 +2004,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2206896551724138</v>
+        <v>0.3423180592991914</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2004,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2012,13 +2030,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1360544217687075</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2030,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>254</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2038,13 +2056,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05442176870748299</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2056,7 +2074,163 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>695</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>62</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.2</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.1919191919191919</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="C48">
+        <v>99</v>
+      </c>
+      <c r="D48">
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06657963446475196</v>
+      </c>
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+      <c r="F49">
+        <v>0.98</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
